--- a/DnaRepairSpreadsheetParser/test/exampleData/broadAssays/Broad Institute-dwassaf.xlsx
+++ b/DnaRepairSpreadsheetParser/test/exampleData/broadAssays/Broad Institute-dwassaf.xlsx
@@ -3032,17 +3032,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3350,9 +3350,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BH7346"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="AA3" sqref="AA3:AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3413,237 +3413,237 @@
       <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9" t="s">
+      <c r="O1" s="11"/>
+      <c r="P1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9" t="s">
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
       <c r="U1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="9"/>
+      <c r="W1" s="11"/>
       <c r="X1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="7" t="s">
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="8" t="s">
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="10" t="s">
         <v>908</v>
       </c>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8" t="s">
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="10"/>
+      <c r="BC1" s="10" t="s">
         <v>909</v>
       </c>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="8"/>
-      <c r="BG1" s="8"/>
-      <c r="BH1" s="8"/>
-    </row>
-    <row r="2" spans="1:60" s="10" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="10"/>
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="10"/>
+    </row>
+    <row r="2" spans="1:60" s="7" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>922</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>923</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>926</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>927</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="7" t="s">
         <v>928</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="7" t="s">
         <v>929</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="8" t="s">
         <v>931</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="8" t="s">
         <v>932</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="7" t="s">
         <v>933</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="7" t="s">
         <v>934</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="7" t="s">
         <v>935</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="7" t="s">
         <v>936</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="7" t="s">
         <v>937</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="7" t="s">
         <v>938</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="7" t="s">
         <v>939</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="7" t="s">
         <v>940</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="7" t="s">
         <v>942</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AA2" s="7" t="s">
         <v>943</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AB2" s="7" t="s">
         <v>944</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AC2" s="7" t="s">
         <v>945</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AD2" s="7" t="s">
         <v>946</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AE2" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AF2" s="7" t="s">
         <v>948</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AG2" s="7" t="s">
         <v>949</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AH2" s="7" t="s">
         <v>950</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AI2" s="7" t="s">
         <v>951</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>952</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AK2" s="7" t="s">
         <v>953</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AL2" s="7" t="s">
         <v>954</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AM2" s="7" t="s">
         <v>955</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AN2" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AO2" s="7" t="s">
         <v>957</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AP2" s="7" t="s">
         <v>958</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>959</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AR2" s="7" t="s">
         <v>960</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AS2" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AT2" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AU2" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AV2" s="7" t="s">
         <v>964</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AW2" s="7" t="s">
         <v>965</v>
       </c>
-      <c r="AX2" s="10" t="s">
+      <c r="AX2" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="AY2" s="10" t="s">
+      <c r="AY2" s="7" t="s">
         <v>967</v>
       </c>
-      <c r="AZ2" s="10" t="s">
+      <c r="AZ2" s="7" t="s">
         <v>968</v>
       </c>
-      <c r="BA2" s="10" t="s">
+      <c r="BA2" s="7" t="s">
         <v>969</v>
       </c>
-      <c r="BB2" s="10" t="s">
+      <c r="BB2" s="7" t="s">
         <v>970</v>
       </c>
       <c r="BC2" t="s">
@@ -3733,7 +3733,7 @@
       <c r="Y3" t="s">
         <v>773</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="AA3" s="6">
         <v>0.5</v>
       </c>
       <c r="AB3" t="s">
@@ -3883,7 +3883,7 @@
       <c r="Y4" t="s">
         <v>773</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="AA4" s="6">
         <v>0.5</v>
       </c>
       <c r="AB4" t="s">
